--- a/AfDD_2021_Annex_Table_Tab18.xlsx
+++ b/AfDD_2021_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -937,7 +937,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1074,6 +1074,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4799,17 +4800,17 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B109" s="49" t="s">
+      <c r="B109" s="50" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B110" s="49" t="s">
+      <c r="B110" s="50" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="50" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4817,10 +4818,10 @@
   <hyperlinks>
     <hyperlink ref="B107" r:id="rId1"/>
     <hyperlink ref="B108" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B111" r:id="rId5"/>
-    <hyperlink ref="B105" r:id="rId6"/>
+    <hyperlink ref="B105" r:id="rId3"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2021_Annex_Table_Tab18.xlsx
+++ b/AfDD_2021_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="175">
   <si>
     <t>Table 18: Public finances</t>
   </si>
@@ -61,6 +61,12 @@
     <t>General government gross debt as a % of GDP, 2019</t>
   </si>
   <si>
+    <t>General government domestic currency gross debt as a % of GDP, 2019</t>
+  </si>
+  <si>
+    <t>General government foreign currency gross debt as a % of GDP, 2019</t>
+  </si>
+  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -124,7 +130,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t/>
   </si>
   <si>
     <t>Southern Africa</t>
@@ -523,7 +529,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".</t>
   </si>
   <si>
-    <t>Source: IMF World Economic Outlook Database October 2020.</t>
+    <t>Source: IMF World Economic Outlook Database October 2020. For gross debt in domestic and foreign currency, IMF World Economic Outlook Database October 2019.</t>
   </si>
   <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2021</t>
@@ -1360,7 +1366,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1369,11 +1375,13 @@
     <col min="1" max="1" width="5.453125" style="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12.453125" style="46" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" style="47" customWidth="1"/>
-    <col min="10" max="11" width="12.453125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="47" customWidth="1"/>
+    <col min="9" max="10" width="12.453125" style="46" customWidth="1"/>
+    <col min="11" max="12" width="12.453125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1384,11 +1392,13 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1413,22 +1423,28 @@
       <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="14">
         <v>20.0145982323216</v>
@@ -1448,22 +1464,28 @@
       <c r="H3" s="14">
         <v>0.88864235011570003</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="15">
         <v>0.82546506788618002</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="15">
         <v>19.2227446757941</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>109.21040727704499</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="14">
+        <v>31.3989144285596</v>
+      </c>
+      <c r="M3" s="15">
+        <v>60.252032699525998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="14">
         <v>26.341160378103901</v>
@@ -1483,22 +1505,28 @@
       <c r="H4" s="14">
         <v>3.9800549664910698</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="15">
         <v>7.1108087598285996</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="15">
         <v>32.481597664754801</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>14.743315868118099</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="14">
+        <v>6.0547969552156502</v>
+      </c>
+      <c r="M4" s="15">
+        <v>6.6838958101712604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="17">
         <v>26.602071530363901</v>
@@ -1518,22 +1546,28 @@
       <c r="H5" s="18">
         <v>6.3733514804880302</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="19">
         <v>9.5731764040313703</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="19">
         <v>33.913838744166299</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>38.200274313262497</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="18">
+        <v>29.3206847167368</v>
+      </c>
+      <c r="M5" s="19">
+        <v>12.2534356457233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="17">
         <v>46.341894166668197</v>
@@ -1545,7 +1579,7 @@
         <v>3.4983302903236102</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="18">
         <v>11.7883164545424</v>
@@ -1553,22 +1587,28 @@
       <c r="H6" s="18">
         <v>9.9917680663829707</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="19">
         <v>0</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="19">
         <v>51.938700113223199</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <v>46.460246134729502</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="18">
+        <v>15.727194098348599</v>
+      </c>
+      <c r="M6" s="19">
+        <v>36.448244212436698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="17">
         <v>21.749929210777498</v>
@@ -1580,7 +1620,7 @@
         <v>2.3355493196505499</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="18">
         <v>8.3997994225702204</v>
@@ -1588,22 +1628,28 @@
       <c r="H7" s="18">
         <v>7.6074779903792296</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="19">
         <v>1.58995601763753</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="19">
         <v>27.7224422775571</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>59.541536650930396</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="18">
+        <v>30.591211905750701</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="17">
         <v>29.8665406030936</v>
@@ -1615,7 +1661,7 @@
         <v>0.97491718844551001</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="18">
         <v>9.895537427571</v>
@@ -1623,22 +1669,28 @@
       <c r="H8" s="18">
         <v>7.2594715394537399</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="19">
         <v>1.7802518761603201</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="19">
         <v>30.0161427167758</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <v>104.378063857589</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="18">
+        <v>15.7725489748273</v>
+      </c>
+      <c r="M8" s="19">
+        <v>91.854512929313103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="17">
         <v>32.3586718306561</v>
@@ -1650,7 +1702,7 @@
         <v>7.9464359225640005E-2</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="18">
         <v>12.293895527002601</v>
@@ -1658,22 +1710,28 @@
       <c r="H9" s="18">
         <v>7.4778815407455701</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="19">
         <v>10.283100878625</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="19">
         <v>38.204113791117003</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <v>54.285900580590699</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="18">
+        <v>36.2078981549517</v>
+      </c>
+      <c r="M9" s="19">
+        <v>19.4089225323943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="17">
         <v>29.064789197705601</v>
@@ -1685,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="18">
         <v>15.184133144231</v>
@@ -1693,22 +1751,28 @@
       <c r="H10" s="18">
         <v>9.0344935445638299</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="19">
         <v>0.21812476319490001</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="19">
         <v>35.3187420102903</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <v>62.151419216661303</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="18">
+        <v>54.180733130811198</v>
+      </c>
+      <c r="M10" s="19">
+        <v>6.20186652040117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="14">
         <v>19.724270888300801</v>
@@ -1728,22 +1792,28 @@
       <c r="H11" s="14">
         <v>7.1904139631807702</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="15">
         <v>1.14910095947963</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="15">
         <v>27.867121134869599</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>91.897677688403803</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="14">
+        <v>31.934113713452099</v>
+      </c>
+      <c r="M11" s="15">
+        <v>60.345251951545599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="17">
         <v>14.6928311682063</v>
@@ -1755,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" s="18">
         <v>1.8211317529623701</v>
@@ -1763,22 +1833,28 @@
       <c r="H12" s="18">
         <v>5.4360260456827696</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="19">
         <v>0.60588414749661001</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="19">
         <v>16.341765087924301</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <v>10.806177686737801</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="19">
+        <v>10.806177686737801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="24">
         <v>26.6756757206198</v>
@@ -1798,22 +1874,28 @@
       <c r="H13" s="24">
         <v>6.5239581487483704</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="25">
         <v>3.3135868874340102</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="25">
         <v>31.302720821647199</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="24">
         <v>59.167501927406803</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="24">
+        <v>27.909788453183701</v>
+      </c>
+      <c r="M13" s="25">
+        <v>33.806037776472103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="17">
         <v>21.784147023548002</v>
@@ -1825,7 +1907,7 @@
         <v>4.42312283560877</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14" s="18">
         <v>3.0390811839323599</v>
@@ -1833,22 +1915,28 @@
       <c r="H14" s="18">
         <v>7.3389417332599303</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="19">
         <v>1.4522257433108099</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="19">
         <v>30.042738284439</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <v>57.370518255914902</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="18">
+        <v>57.713672149130403</v>
+      </c>
+      <c r="M14" s="19">
+        <v>17.0720093273756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="17">
         <v>15.7426452286686</v>
@@ -1868,22 +1956,28 @@
       <c r="H15" s="18">
         <v>7.0179637169032603</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="19">
         <v>1.8623534290635699</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="19">
         <v>19.053963543189699</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <v>42.669031275505297</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="18">
+        <v>8.9260575323657001</v>
+      </c>
+      <c r="M15" s="19">
+        <v>31.249123456024101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="17">
         <v>18.346950725989998</v>
@@ -1895,7 +1989,7 @@
         <v>9.6469996273822503</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G16" s="18">
         <v>1.8596995497419</v>
@@ -1903,22 +1997,28 @@
       <c r="H16" s="18">
         <v>4.00222575114958</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="19">
         <v>1.9651086605182599</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="19">
         <v>16.9221021359015</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <v>47.177254569936899</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="18">
+        <v>18.9608459784444</v>
+      </c>
+      <c r="M16" s="19">
+        <v>26.239697406413899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="14">
         <v>14.2490546537332</v>
@@ -1933,27 +2033,33 @@
         <v>5.5091682529178998</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="14">
+        <v>22</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="15">
         <v>14.4211019787097</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>44.2861295747798</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="14">
+        <v>19.602586719721099</v>
+      </c>
+      <c r="M17" s="15">
+        <v>25.374467354158998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="14">
         <v>27.251278244662799</v>
@@ -1973,22 +2079,28 @@
       <c r="H18" s="14">
         <v>4.1326484565302</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="15">
         <v>1.4798188928112199</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="15">
         <v>21.428786357168999</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <v>83.6723696552679</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="14">
+        <v>20.994684410485601</v>
+      </c>
+      <c r="M18" s="15">
+        <v>51.229051896124702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="14">
         <v>10.870485304030501</v>
@@ -2000,7 +2112,7 @@
         <v>0.77819779210550999</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G19" s="14">
         <v>2.7598322942630098</v>
@@ -2008,22 +2120,28 @@
       <c r="H19" s="14">
         <v>2.6890934428742002</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="15">
         <v>1.6138196251852599</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="15">
         <v>12.9230137274083</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="14">
         <v>14.7497326097882</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="14">
         <v>17.9058409973381</v>
@@ -2035,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G20" s="14">
         <v>4.4089145163690002</v>
@@ -2043,22 +2161,28 @@
       <c r="H20" s="14">
         <v>0.99638712822039999</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="15">
         <v>0.32912005228169999</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="15">
         <v>16.1525035609396</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <v>41.062669817713598</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="14">
+        <v>33.7905050059315</v>
+      </c>
+      <c r="M20" s="15">
+        <v>12.5075341903029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="14">
         <v>19.5342062401362</v>
@@ -2073,27 +2197,33 @@
         <v>6.5514830451822599</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="14">
         <v>2.81029347881167</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="15">
         <v>3.0782388101571798</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="15">
         <v>17.407243581663401</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>62.4012485647727</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="17">
         <v>22.542714321916801</v>
@@ -2113,22 +2243,28 @@
       <c r="H22" s="18">
         <v>1.70495821371712</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="19">
         <v>5.2650296333637403</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="19">
         <v>24.301132017966101</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="18">
         <v>73.069495436552501</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="24">
         <v>18.691924748891601</v>
@@ -2148,22 +2284,28 @@
       <c r="H23" s="24">
         <v>3.83656399018329</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="25">
         <v>2.1307143558364698</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="25">
         <v>19.183620576376299</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="24">
         <v>51.828716640025696</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" s="24">
+        <v>26.6647252993465</v>
+      </c>
+      <c r="M23" s="25">
+        <v>27.278647271733401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="17">
         <v>16.137260574922301</v>
@@ -2175,7 +2317,7 @@
         <v>7.4573324471965403</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" s="18">
         <v>1.55599060760901</v>
@@ -2183,22 +2325,28 @@
       <c r="H24" s="18">
         <v>3.7214814375976299</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="19">
         <v>2.8954894693490298</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="19">
         <v>18.3413007716035</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="18">
         <v>25.237140315833699</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" s="18">
+        <v>1.53036172616499</v>
+      </c>
+      <c r="M24" s="19">
+        <v>22.3345906402214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="17">
         <v>21.680292547819299</v>
@@ -2210,7 +2358,7 @@
         <v>3.30389475035056</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G25" s="18">
         <v>5.2222631670188804</v>
@@ -2218,22 +2366,28 @@
       <c r="H25" s="18">
         <v>5.0278121455355098</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="19">
         <v>1.3196745725137999</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="19">
         <v>22.527288880036799</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="18">
         <v>38.474482121234097</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" s="18">
+        <v>0.43858336634511003</v>
+      </c>
+      <c r="M25" s="19">
+        <v>44.391102116420903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="17">
         <v>31.736148463856001</v>
@@ -2253,22 +2407,28 @@
       <c r="H26" s="18">
         <v>3.9399792477978099</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="19">
         <v>0.95532191476288997</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="19">
         <v>33.342861995955602</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="18">
         <v>189.35093644409099</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" s="18">
+        <v>114.05501518100201</v>
+      </c>
+      <c r="M26" s="19">
+        <v>61.729622118773001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="17">
         <v>12.793342152889201</v>
@@ -2280,7 +2440,7 @@
         <v>1.24689253352926</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G27" s="18">
         <v>4.0695380454469197</v>
@@ -2288,22 +2448,28 @@
       <c r="H27" s="18">
         <v>2.8420702515616099</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="19">
         <v>2.7751999380025199</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="19">
         <v>15.3216136798299</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="18">
         <v>57.603100488677498</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" s="18">
+        <v>28.609611116287201</v>
+      </c>
+      <c r="M27" s="19">
+        <v>29.253777816753399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="17">
         <v>17.680099553611502</v>
@@ -2315,7 +2481,7 @@
         <v>0.2028752322906</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G28" s="18">
         <v>7.55499864459376</v>
@@ -2323,22 +2489,28 @@
       <c r="H28" s="18">
         <v>6.7854422763434901</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="19">
         <v>1.2100901635485799</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="19">
         <v>25.414319398889901</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="18">
         <v>62.098717214750998</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" s="18">
+        <v>30.087424110934901</v>
+      </c>
+      <c r="M28" s="19">
+        <v>33.585146845729298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="17">
         <v>13.9212370866112</v>
@@ -2358,22 +2530,28 @@
       <c r="H29" s="18">
         <v>2.76285986272087</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="19">
         <v>5.0678257280134202</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="19">
         <v>15.3400345421708</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="18">
         <v>38.421686514874601</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="17">
         <v>20.407467086186902</v>
@@ -2385,7 +2563,7 @@
         <v>0.89495873357319</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G30" s="18">
         <v>7.1031938618605501</v>
@@ -2393,22 +2571,28 @@
       <c r="H30" s="18">
         <v>12.208988479518201</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="19">
         <v>0.2789445317125</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="19">
         <v>30.055883788753</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="18">
         <v>77.695059867923405</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="19">
+        <v>14.3954505401133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="17">
         <v>23.644296542810501</v>
@@ -2420,7 +2604,7 @@
         <v>4.1867699752325196</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G31" s="18">
         <v>7.03669475347857</v>
@@ -2428,22 +2612,28 @@
       <c r="H31" s="18">
         <v>7.9608218718726</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="19">
         <v>1.28925736459088</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="19">
         <v>28.836916100764899</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="18">
         <v>51.360522185956299</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31" s="18">
+        <v>10.1043179051729</v>
+      </c>
+      <c r="M31" s="19">
+        <v>39.546111706863101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="17">
         <v>36.374232415754101</v>
@@ -2455,7 +2645,7 @@
         <v>0.40619708920717001</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G32" s="18">
         <v>10.7163593051229</v>
@@ -2463,22 +2653,28 @@
       <c r="H32" s="18">
         <v>17.340969233953501</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="19">
         <v>1.47108369069753</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="19">
         <v>35.490246974350697</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="18">
         <v>55.259859075319497</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32" s="18">
+        <v>27.142920391749598</v>
+      </c>
+      <c r="M32" s="19">
+        <v>26.719284415645799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="17">
         <v>6.8450939369610699</v>
@@ -2490,30 +2686,36 @@
         <v>2.1972499166024799</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G33" s="18">
         <v>0.18412409083796999</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="18">
+        <v>22</v>
+      </c>
+      <c r="I33" s="19">
         <v>1.9828748244089101</v>
       </c>
-      <c r="J33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="14">
         <v>38.965133787593601</v>
@@ -2528,27 +2730,33 @@
         <v>28.793945961793799</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="14">
+        <v>22</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="15">
         <v>38.621794985203401</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="14">
         <v>65.427367797519594</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" s="14">
+        <v>10.1416038997769</v>
+      </c>
+      <c r="M34" s="15">
+        <v>25.6136036039236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="17">
         <v>7.8934138442719304</v>
@@ -2568,22 +2776,28 @@
       <c r="H35" s="18">
         <v>2.7624686832254199</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="19">
         <v>0.60524330455983999</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="19">
         <v>18.778200791717101</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="18">
         <v>201.577738234458</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35" s="18">
+        <v>9.9108244060125603</v>
+      </c>
+      <c r="M35" s="19">
+        <v>196.67280531686799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="17">
         <v>14.668309594151401</v>
@@ -2595,7 +2809,7 @@
         <v>0.53293998187429004</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G36" s="18">
         <v>3.8244283975178601</v>
@@ -2603,22 +2817,28 @@
       <c r="H36" s="18">
         <v>5.36926244622701</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="19">
         <v>0.89495557877559995</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="19">
         <v>16.3845122058475</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="18">
         <v>38.220282293614098</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L36" s="18">
+        <v>11.453976397633999</v>
+      </c>
+      <c r="M36" s="19">
+        <v>27.238425253975102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="17">
         <v>13.661932581842199</v>
@@ -2630,7 +2850,7 @@
         <v>0.90316770432673998</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G37" s="18">
         <v>4.3554182048281396</v>
@@ -2638,22 +2858,28 @@
       <c r="H37" s="18">
         <v>6.6525236581251503</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="19">
         <v>1.2575290301389299</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="19">
         <v>18.6771277358914</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="18">
         <v>38.228906111935103</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L37" s="18">
+        <v>12.400849491335499</v>
+      </c>
+      <c r="M37" s="19">
+        <v>24.2276345406258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38" s="24">
         <v>19.743447154948701</v>
@@ -2673,22 +2899,28 @@
       <c r="H38" s="24">
         <v>6.4478899662065601</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="25">
         <v>1.6925761623903399</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="25">
         <v>24.394777065462701</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="24">
         <v>72.227369128168306</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L38" s="24">
+        <v>23.261407999310499</v>
+      </c>
+      <c r="M38" s="25">
+        <v>45.475629576326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C39" s="14">
         <v>32.6028238189405</v>
@@ -2708,22 +2940,28 @@
       <c r="H39" s="14">
         <v>5.5286089863699504</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="15">
         <v>13.257552440147</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="15">
         <v>38.240699240609899</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="14">
         <v>46.278144349801302</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L39" s="14">
+        <v>45.757974143485001</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0.87591437762978996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40" s="17">
         <v>20.1204242686158</v>
@@ -2735,65 +2973,77 @@
         <v>4.9012607805189998E-2</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="18">
+        <v>22</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="19">
         <v>27.529115198887698</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="18">
         <v>83.800022547490698</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L40" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C41" s="14">
         <v>103.953198274554</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E41" s="14">
         <v>0</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="14">
+        <v>22</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="15">
         <v>101.760551586408</v>
       </c>
-      <c r="K41" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C42" s="14">
         <v>21.2688698513353</v>
@@ -2813,22 +3063,28 @@
       <c r="H42" s="14">
         <v>6.9751001990791996</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="15">
         <v>2.3736888546810002</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="15">
         <v>18.515219284703999</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="14">
         <v>58.115280532791999</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42" s="14">
+        <v>8.0215085697847908</v>
+      </c>
+      <c r="M42" s="15">
+        <v>50.862375463405797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C43" s="17">
         <v>25.8902294596103</v>
@@ -2840,7 +3096,7 @@
         <v>0.24880038423049999</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G43" s="18">
         <v>9.0901154128516097</v>
@@ -2848,22 +3104,28 @@
       <c r="H43" s="18">
         <v>10.376475665193199</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="19">
         <v>0.85804122640508995</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="19">
         <v>30.017479145123101</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="18">
         <v>65.7843300031669</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L43" s="18">
+        <v>51.043834926241999</v>
+      </c>
+      <c r="M43" s="19">
+        <v>14.922936546151099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C44" s="17">
         <v>28.0062309162048</v>
@@ -2875,7 +3137,7 @@
         <v>0.21879971871842999</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G44" s="18">
         <v>10.5664261883015</v>
@@ -2883,22 +3145,28 @@
       <c r="H44" s="18">
         <v>7.2916563434500503</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="19">
         <v>1.17963878859436</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="19">
         <v>31.8978544568591</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="18">
         <v>72.333071855204395</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L44" s="18">
+        <v>19.851776057775499</v>
+      </c>
+      <c r="M44" s="19">
+        <v>54.842959377030901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C45" s="24">
         <v>38.6402960982102</v>
@@ -2918,22 +3186,28 @@
       <c r="H45" s="24">
         <v>7.5429602985231003</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="25">
         <v>4.4172303274568696</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="25">
         <v>41.326819818765301</v>
       </c>
-      <c r="K45" s="25">
+      <c r="K45" s="24">
         <v>65.262169857691106</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L45" s="24">
+        <v>31.168773424321799</v>
+      </c>
+      <c r="M45" s="25">
+        <v>30.376046441054399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C46" s="17">
         <v>14.0615334141975</v>
@@ -2945,7 +3219,7 @@
         <v>1.1582488170307901</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G46" s="18">
         <v>1.8353702582501901</v>
@@ -2953,22 +3227,28 @@
       <c r="H46" s="18">
         <v>3.2645476229338399</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="19">
         <v>4.8873290034851502</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="19">
         <v>14.601111698042599</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="18">
         <v>41.229642352025103</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46" s="18">
+        <v>40.766614454280003</v>
+      </c>
+      <c r="M46" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C47" s="17">
         <v>20.3993358903938</v>
@@ -2988,22 +3268,28 @@
       <c r="H47" s="18">
         <v>9.2970683785126091</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="19">
         <v>2.3965954542248502</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="19">
         <v>23.8676513129464</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K47" s="18">
         <v>42.672143001398403</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L47" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C48" s="17">
         <v>29.401674436987701</v>
@@ -3023,22 +3309,28 @@
       <c r="H48" s="18">
         <v>10.5790665112286</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="19">
         <v>4.3541430876874099</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="19">
         <v>31.236685012206902</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="18">
         <v>124.98144675661401</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L48" s="18">
+        <v>32.353113057003803</v>
+      </c>
+      <c r="M48" s="19">
+        <v>92.102237540174201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C49" s="17">
         <v>15.029191016624599</v>
@@ -3058,22 +3350,28 @@
       <c r="H49" s="18">
         <v>2.7068994345821298</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="19">
         <v>3.8737380149437701</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="19">
         <v>17.3171643211078</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K49" s="18">
         <v>37.887592113361002</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L49" s="18">
+        <v>11.1589437722075</v>
+      </c>
+      <c r="M49" s="19">
+        <v>28.6639544821242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C50" s="17">
         <v>21.0440598570876</v>
@@ -3093,22 +3391,28 @@
       <c r="H50" s="18">
         <v>5.3234579307936798</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="19">
         <v>2.8203185067140901</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="19">
         <v>23.5747918739096</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="18">
         <v>80.010233980766799</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L50" s="18">
+        <v>35.8591036409453</v>
+      </c>
+      <c r="M50" s="19">
+        <v>43.0954179819418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C51" s="14">
         <v>13.7381359291014</v>
@@ -3128,22 +3432,28 @@
       <c r="H51" s="14">
         <v>5.5181068099195096</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="15">
         <v>1.8363835596986799</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="15">
         <v>21.078823682115999</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="14">
         <v>62.762864053036502</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L51" s="14">
+        <v>31.1263445922385</v>
+      </c>
+      <c r="M51" s="15">
+        <v>32.357885444411401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C52" s="17">
         <v>14.129060037165001</v>
@@ -3163,22 +3473,28 @@
       <c r="H52" s="18">
         <v>6.05962032435166</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="19">
         <v>2.3241777468294602</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="19">
         <v>14.5935694377785</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K52" s="18">
         <v>34.497999249305998</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L52" s="18">
+        <v>15.0458257818346</v>
+      </c>
+      <c r="M52" s="19">
+        <v>29.933001294926701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C53" s="17">
         <v>15.4258634899568</v>
@@ -3198,22 +3514,28 @@
       <c r="H53" s="18">
         <v>4.5532752905549803</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="19">
         <v>2.6201143221390502</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="19">
         <v>20.032880050040799</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K53" s="18">
         <v>67.616181430511602</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L53" s="18">
+        <v>43.046108912298997</v>
+      </c>
+      <c r="M53" s="19">
+        <v>23.605602828631898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C54" s="17">
         <v>28.0927048157663</v>
@@ -3233,22 +3555,28 @@
       <c r="H54" s="18">
         <v>2.3531483251271501</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="19">
         <v>5.4815585054429903</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="19">
         <v>32.640366064601601</v>
       </c>
-      <c r="K54" s="19">
+      <c r="K54" s="18">
         <v>53.273656737017802</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L54" s="18">
+        <v>13.3322660033192</v>
+      </c>
+      <c r="M54" s="19">
+        <v>32.864942179870603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C55" s="17">
         <v>21.4117195663461</v>
@@ -3268,22 +3596,28 @@
       <c r="H55" s="18">
         <v>8.5700802579147304</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="19">
         <v>1.61142224699292</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J55" s="19">
         <v>23.091514434087401</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K55" s="18">
         <v>40.464440218038099</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L55" s="18">
+        <v>11.957226986185301</v>
+      </c>
+      <c r="M55" s="19">
+        <v>26.040012800075001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C56" s="17">
         <v>18.010266767456699</v>
@@ -3303,22 +3637,28 @@
       <c r="H56" s="18">
         <v>4.2801806854675704</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="19">
         <v>3.2301348433080901</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="19">
         <v>21.569740515845002</v>
       </c>
-      <c r="K56" s="19">
+      <c r="K56" s="18">
         <v>41.725834011704499</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L56" s="18">
+        <v>12.933426489997499</v>
+      </c>
+      <c r="M56" s="19">
+        <v>27.020372838788401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C57" s="14">
         <v>7.8631602699819698</v>
@@ -3338,22 +3678,28 @@
       <c r="H57" s="14">
         <v>0.87362652111620998</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="15">
         <v>0.47889116242528001</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="15">
         <v>12.61969736995</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K57" s="14">
         <v>29.141875761402702</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L57" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C58" s="17">
         <v>20.1892147237754</v>
@@ -3373,22 +3719,28 @@
       <c r="H58" s="18">
         <v>9.1872947980031796</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="19">
         <v>2.5284876784268402</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J58" s="19">
         <v>24.013856783348601</v>
       </c>
-      <c r="K58" s="19">
+      <c r="K58" s="18">
         <v>64.051147467080696</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L58" s="18">
+        <v>9.4358293476717208</v>
+      </c>
+      <c r="M58" s="19">
+        <v>54.655473720327997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C59" s="17">
         <v>17.547538972192001</v>
@@ -3408,22 +3760,28 @@
       <c r="H59" s="18">
         <v>3.9821768000939501</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="19">
         <v>1.97242190144694</v>
       </c>
-      <c r="J59" s="18">
+      <c r="J59" s="19">
         <v>20.288523883325801</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K59" s="18">
         <v>70.048517633073104</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L59" s="18">
+        <v>22.7120996254367</v>
+      </c>
+      <c r="M59" s="19">
+        <v>41.721888297468503</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C60" s="14">
         <v>23.351205530795699</v>
@@ -3435,7 +3793,7 @@
         <v>3.8273769658526899</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G60" s="14">
         <v>4.07226050774476</v>
@@ -3443,22 +3801,28 @@
       <c r="H60" s="14">
         <v>5.7277394922552496</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="15">
         <v>7.8000000000000096</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="15">
         <v>21.217308431319999</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K60" s="14">
         <v>70.8542394795777</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L60" s="14">
+        <v>50.663399985856401</v>
+      </c>
+      <c r="M60" s="15">
+        <v>21.934862290607001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C61" s="24">
         <v>18.646310981188599</v>
@@ -3478,22 +3842,28 @@
       <c r="H61" s="24">
         <v>5.4850859455236698</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="25">
         <v>3.2143810689176999</v>
       </c>
-      <c r="J61" s="24">
+      <c r="J61" s="25">
         <v>21.449578991375098</v>
       </c>
-      <c r="K61" s="25">
+      <c r="K61" s="24">
         <v>57.414520949660897</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L61" s="24">
+        <v>25.414638665328901</v>
+      </c>
+      <c r="M61" s="25">
+        <v>34.922742438411397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C62" s="28">
         <v>22.646829285603602</v>
@@ -3513,22 +3883,28 @@
       <c r="H62" s="28">
         <v>5.8317327220484998</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="29">
         <v>2.7613942235139901</v>
       </c>
-      <c r="J62" s="28">
+      <c r="J62" s="29">
         <v>25.8965377176999</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="28">
         <v>61.242652523727998</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L62" s="28">
+        <v>26.095751911946799</v>
+      </c>
+      <c r="M62" s="29">
+        <v>36.116673090866499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C63" s="28">
         <v>33.855576706534499</v>
@@ -3548,22 +3924,28 @@
       <c r="H63" s="28">
         <v>8.7192434417857303</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="29">
         <v>1.83538688184848</v>
       </c>
-      <c r="J63" s="28">
+      <c r="J63" s="29">
         <v>35.577777325526803</v>
       </c>
-      <c r="K63" s="29">
+      <c r="K63" s="28">
         <v>57.8452137666686</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L63" s="28">
+        <v>31.889734564907101</v>
+      </c>
+      <c r="M63" s="29">
+        <v>23.741965328195199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C64" s="32">
         <v>24.714584084646301</v>
@@ -3583,22 +3965,28 @@
       <c r="H64" s="32">
         <v>7.9162404987172703</v>
       </c>
-      <c r="I64" s="32">
+      <c r="I64" s="33">
         <v>3.5695665659686799</v>
       </c>
-      <c r="J64" s="32">
+      <c r="J64" s="33">
         <v>27.8076906868307</v>
       </c>
-      <c r="K64" s="33">
+      <c r="K64" s="32">
         <v>66.1897831765109</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L64" s="32">
+        <v>29.707407088081101</v>
+      </c>
+      <c r="M64" s="33">
+        <v>30.2022526517868</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C65" s="35">
         <v>22.589680926779799</v>
@@ -3618,22 +4006,28 @@
       <c r="H65" s="35">
         <v>7.0793367654377404</v>
       </c>
-      <c r="I65" s="35">
+      <c r="I65" s="33">
         <v>1.6198309844576999</v>
       </c>
-      <c r="J65" s="35">
+      <c r="J65" s="33">
         <v>27.1671168248741</v>
       </c>
-      <c r="K65" s="33">
+      <c r="K65" s="35">
         <v>54.895514466096699</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L65" s="35">
+        <v>39.437073381993102</v>
+      </c>
+      <c r="M65" s="33">
+        <v>24.3829466345335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C66" s="32">
         <v>30.618826114394</v>
@@ -3653,22 +4047,28 @@
       <c r="H66" s="32">
         <v>7.6939678963717899</v>
       </c>
-      <c r="I66" s="32">
+      <c r="I66" s="33">
         <v>2.1684830479152</v>
       </c>
-      <c r="J66" s="32">
+      <c r="J66" s="33">
         <v>32.819144534049201</v>
       </c>
-      <c r="K66" s="33">
+      <c r="K66" s="32">
         <v>58.810606200368497</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L66" s="32">
+        <v>29.813557447596299</v>
+      </c>
+      <c r="M66" s="33">
+        <v>28.097862460655499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C67" s="37">
         <v>23.3465907320066</v>
@@ -3688,22 +4088,28 @@
       <c r="H67" s="37">
         <v>6.4406876748648196</v>
       </c>
-      <c r="I67" s="37">
+      <c r="I67" s="38">
         <v>2.0143334851597099</v>
       </c>
-      <c r="J67" s="37">
+      <c r="J67" s="38">
         <v>28.6062117579241</v>
       </c>
-      <c r="K67" s="38">
+      <c r="K67" s="37">
         <v>66.526692641199304</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L67" s="37">
+        <v>28.835097588417899</v>
+      </c>
+      <c r="M67" s="38">
+        <v>43.211690669761801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C68" s="35">
         <v>21.533098119318002</v>
@@ -3723,22 +4129,28 @@
       <c r="H68" s="35">
         <v>5.4019654199775102</v>
       </c>
-      <c r="I68" s="35">
+      <c r="I68" s="33">
         <v>2.3870498207467401</v>
       </c>
-      <c r="J68" s="35">
+      <c r="J68" s="33">
         <v>24.663321250821902</v>
       </c>
-      <c r="K68" s="33">
+      <c r="K68" s="35">
         <v>65.613004215229097</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L68" s="35">
+        <v>26.4060130260223</v>
+      </c>
+      <c r="M68" s="33">
+        <v>41.319951415937297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C69" s="35">
         <v>21.733986513926201</v>
@@ -3758,22 +4170,28 @@
       <c r="H69" s="35">
         <v>6.8213983971656402</v>
       </c>
-      <c r="I69" s="35">
+      <c r="I69" s="33">
         <v>1.2208115760729601</v>
       </c>
-      <c r="J69" s="35">
+      <c r="J69" s="33">
         <v>26.329568118506</v>
       </c>
-      <c r="K69" s="33">
+      <c r="K69" s="35">
         <v>52.117718976615201</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L69" s="35">
+        <v>21.983640658997398</v>
+      </c>
+      <c r="M69" s="33">
+        <v>27.8804885464154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C70" s="35">
         <v>19.2623834104688</v>
@@ -3793,22 +4211,28 @@
       <c r="H70" s="35">
         <v>3.95419761434546</v>
       </c>
-      <c r="I70" s="35">
+      <c r="I70" s="33">
         <v>1.91604372791688</v>
       </c>
-      <c r="J70" s="35">
+      <c r="J70" s="33">
         <v>20.064749633085899</v>
       </c>
-      <c r="K70" s="33">
+      <c r="K70" s="35">
         <v>57.002670838475701</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L70" s="35">
+        <v>25.1864480162264</v>
+      </c>
+      <c r="M70" s="33">
+        <v>32.933753504598698</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C71" s="35">
         <v>18.646310981188599</v>
@@ -3828,22 +4252,28 @@
       <c r="H71" s="35">
         <v>5.4850859455236698</v>
       </c>
-      <c r="I71" s="35">
+      <c r="I71" s="33">
         <v>3.2143810689176999</v>
       </c>
-      <c r="J71" s="35">
+      <c r="J71" s="33">
         <v>21.449578991375098</v>
       </c>
-      <c r="K71" s="33">
+      <c r="K71" s="35">
         <v>57.414520949660897</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L71" s="35">
+        <v>25.414638665328901</v>
+      </c>
+      <c r="M71" s="33">
+        <v>34.922742438411397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C72" s="35">
         <v>18.906932108605599</v>
@@ -3863,22 +4293,28 @@
       <c r="H72" s="35">
         <v>4.6683827104314997</v>
       </c>
-      <c r="I72" s="35">
+      <c r="I72" s="33">
         <v>1.4437048211336401</v>
       </c>
-      <c r="J72" s="35">
+      <c r="J72" s="33">
         <v>24.669029638217701</v>
       </c>
-      <c r="K72" s="33">
+      <c r="K72" s="35">
         <v>93.251606916095199</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L72" s="35">
+        <v>29.377701653099201</v>
+      </c>
+      <c r="M72" s="33">
+        <v>59.353384622727603</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C73" s="35">
         <v>23.6959843292409</v>
@@ -3898,22 +4334,28 @@
       <c r="H73" s="35">
         <v>6.8332647743984403</v>
       </c>
-      <c r="I73" s="35">
+      <c r="I73" s="33">
         <v>2.8348742186295901</v>
       </c>
-      <c r="J73" s="35">
+      <c r="J73" s="33">
         <v>27.597637514162901</v>
       </c>
-      <c r="K73" s="33">
+      <c r="K73" s="35">
         <v>52.578673746963901</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L73" s="35">
+        <v>24.2762795495169</v>
+      </c>
+      <c r="M73" s="33">
+        <v>30.3801608337081</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C74" s="32">
         <v>42.344270464129004</v>
@@ -3933,22 +4375,28 @@
       <c r="H74" s="32">
         <v>7.5429602985231003</v>
       </c>
-      <c r="I74" s="32">
+      <c r="I74" s="33">
         <v>4.4172303274568696</v>
       </c>
-      <c r="J74" s="32">
+      <c r="J74" s="33">
         <v>44.086360742740801</v>
       </c>
-      <c r="K74" s="33">
+      <c r="K74" s="32">
         <v>60.627706685241201</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L74" s="32">
+        <v>31.168773424321799</v>
+      </c>
+      <c r="M74" s="33">
+        <v>30.376046441054399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C75" s="37">
         <v>19.3551234447607</v>
@@ -3968,22 +4416,28 @@
       <c r="H75" s="37">
         <v>5.9447892728182996</v>
       </c>
-      <c r="I75" s="37">
+      <c r="I75" s="38">
         <v>0.85833832814455002</v>
       </c>
-      <c r="J75" s="37">
+      <c r="J75" s="38">
         <v>21.437362491649601</v>
       </c>
-      <c r="K75" s="38">
+      <c r="K75" s="37">
         <v>47.093380423560802</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L75" s="37">
+        <v>22.224586097858801</v>
+      </c>
+      <c r="M75" s="38">
+        <v>9.0603628706498895</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C76" s="35">
         <v>26.125729611923301</v>
@@ -4003,22 +4457,28 @@
       <c r="H76" s="35">
         <v>8.3806642917787304</v>
       </c>
-      <c r="I76" s="35">
+      <c r="I76" s="33">
         <v>1.6170006962911001</v>
       </c>
-      <c r="J76" s="35">
+      <c r="J76" s="33">
         <v>30.893753887529201</v>
       </c>
-      <c r="K76" s="33">
+      <c r="K76" s="35">
         <v>70.407022905284606</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L76" s="35">
+        <v>28.739678660580701</v>
+      </c>
+      <c r="M76" s="33">
+        <v>24.454636649255502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C77" s="32">
         <v>42.804633060603102</v>
@@ -4030,7 +4490,7 @@
         <v>0.82408771133735004</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G77" s="32">
         <v>10.445609654890299</v>
@@ -4038,22 +4498,28 @@
       <c r="H77" s="32">
         <v>12.1049492429543</v>
       </c>
-      <c r="I77" s="32">
+      <c r="I77" s="33">
         <v>0.58406800322850005</v>
       </c>
-      <c r="J77" s="32">
+      <c r="J77" s="33">
         <v>43.009200722867</v>
       </c>
-      <c r="K77" s="33">
+      <c r="K77" s="32">
         <v>63.437693811213002</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L77" s="32">
+        <v>57.141849203146798</v>
+      </c>
+      <c r="M77" s="33">
+        <v>10.202888166052601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C78" s="37">
         <v>26.508894826728699</v>
@@ -4073,22 +4539,28 @@
       <c r="H78" s="37">
         <v>3.9425596495803399</v>
       </c>
-      <c r="I78" s="37">
+      <c r="I78" s="38">
         <v>3.4444073487151501</v>
       </c>
-      <c r="J78" s="37">
+      <c r="J78" s="38">
         <v>27.5972138174413</v>
       </c>
-      <c r="K78" s="38">
+      <c r="K78" s="37">
         <v>56.757380216429901</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L78" s="37">
+        <v>26.316948402227901</v>
+      </c>
+      <c r="M78" s="38">
+        <v>31.639715916527901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C79" s="35">
         <v>28.772475867087199</v>
@@ -4108,22 +4580,28 @@
       <c r="H79" s="35">
         <v>3.6090992758877798</v>
       </c>
-      <c r="I79" s="35">
+      <c r="I79" s="33">
         <v>1.3990744063043301</v>
       </c>
-      <c r="J79" s="35">
+      <c r="J79" s="33">
         <v>32.197502832985101</v>
       </c>
-      <c r="K79" s="33">
+      <c r="K79" s="35">
         <v>45.297540074152302</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L79" s="35">
+        <v>19.465580256758301</v>
+      </c>
+      <c r="M79" s="33">
+        <v>17.656253051312898</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C80" s="35">
         <v>21.1614194620939</v>
@@ -4143,22 +4621,28 @@
       <c r="H80" s="35">
         <v>6.4444375023084399</v>
       </c>
-      <c r="I80" s="35">
+      <c r="I80" s="33">
         <v>2.5457058681873002</v>
       </c>
-      <c r="J80" s="35">
+      <c r="J80" s="33">
         <v>25.225218204644001</v>
       </c>
-      <c r="K80" s="33">
+      <c r="K80" s="35">
         <v>62.895121268521997</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L80" s="35">
+        <v>26.019715618412601</v>
+      </c>
+      <c r="M80" s="33">
+        <v>37.608992148979397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C81" s="32">
         <v>34.9184068820554</v>
@@ -4178,22 +4662,28 @@
       <c r="H81" s="32">
         <v>9.7550834754137004</v>
       </c>
-      <c r="I81" s="32">
+      <c r="I81" s="33">
         <v>1.92382859986418</v>
       </c>
-      <c r="J81" s="32">
+      <c r="J81" s="33">
         <v>36.2845619921492</v>
       </c>
-      <c r="K81" s="33">
+      <c r="K81" s="32">
         <v>60.377771759653598</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L81" s="32">
+        <v>34.650657744495703</v>
+      </c>
+      <c r="M81" s="33">
+        <v>25.239986811735498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C82" s="37">
         <v>19.379976558485598</v>
@@ -4213,22 +4703,28 @@
       <c r="H82" s="37">
         <v>5.2982340758745901</v>
       </c>
-      <c r="I82" s="37">
+      <c r="I82" s="38">
         <v>2.5043503597327601</v>
       </c>
-      <c r="J82" s="37">
+      <c r="J82" s="38">
         <v>22.8110198616445</v>
       </c>
-      <c r="K82" s="38">
+      <c r="K82" s="37">
         <v>66.847124501720302</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L82" s="37">
+        <v>28.074344481754501</v>
+      </c>
+      <c r="M82" s="38">
+        <v>43.5444634796321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C83" s="35">
         <v>18.749242977743101</v>
@@ -4248,22 +4744,28 @@
       <c r="H83" s="35">
         <v>4.51111066536685</v>
       </c>
-      <c r="I83" s="35">
+      <c r="I83" s="33">
         <v>1.59157398643167</v>
       </c>
-      <c r="J83" s="35">
+      <c r="J83" s="33">
         <v>21.438003005197402</v>
       </c>
-      <c r="K83" s="33">
+      <c r="K83" s="35">
         <v>43.3575657002445</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L83" s="35">
+        <v>30.3655553370495</v>
+      </c>
+      <c r="M83" s="33">
+        <v>25.876084940112399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C84" s="35">
         <v>21.358684963347301</v>
@@ -4283,22 +4785,28 @@
       <c r="H84" s="35">
         <v>5.72459788593547</v>
       </c>
-      <c r="I84" s="35">
+      <c r="I84" s="33">
         <v>2.8504060061279102</v>
       </c>
-      <c r="J84" s="35">
+      <c r="J84" s="33">
         <v>24.513181701027602</v>
       </c>
-      <c r="K84" s="33">
+      <c r="K84" s="35">
         <v>58.538335617604901</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L84" s="35">
+        <v>22.7014701800903</v>
+      </c>
+      <c r="M84" s="33">
+        <v>35.970815967786002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C85" s="35">
         <v>31.697737614170101</v>
@@ -4318,22 +4826,28 @@
       <c r="H85" s="35">
         <v>9.2189401368564994</v>
       </c>
-      <c r="I85" s="35">
+      <c r="I85" s="33">
         <v>2.0453666934151098</v>
       </c>
-      <c r="J85" s="35">
+      <c r="J85" s="33">
         <v>34.139735994130298</v>
       </c>
-      <c r="K85" s="33">
+      <c r="K85" s="35">
         <v>45.5671675032374</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L85" s="35">
+        <v>26.4795532047177</v>
+      </c>
+      <c r="M85" s="33">
+        <v>26.442413433111899</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C86" s="35">
         <v>38.192977819748997</v>
@@ -4353,22 +4867,28 @@
       <c r="H86" s="35">
         <v>4.85982213176651</v>
       </c>
-      <c r="I86" s="35">
+      <c r="I86" s="33">
         <v>4.2038786528174796</v>
       </c>
-      <c r="J86" s="35">
+      <c r="J86" s="33">
         <v>40.220792032528799</v>
       </c>
-      <c r="K86" s="33">
+      <c r="K86" s="35">
         <v>46.928910809571299</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L86" s="35">
+        <v>32.5584833117275</v>
+      </c>
+      <c r="M86" s="33">
+        <v>11.200554763317401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C87" s="35">
         <v>29.940117659862299</v>
@@ -4388,22 +4908,28 @@
       <c r="H87" s="35">
         <v>9.1415883901554196</v>
       </c>
-      <c r="I87" s="35">
+      <c r="I87" s="33">
         <v>2.6141310324435598</v>
       </c>
-      <c r="J87" s="35">
+      <c r="J87" s="33">
         <v>32.562137284765498</v>
       </c>
-      <c r="K87" s="33">
+      <c r="K87" s="35">
         <v>57.2071849155206</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L87" s="35">
+        <v>26.310648367230201</v>
+      </c>
+      <c r="M87" s="33">
+        <v>28.3662740447262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C88" s="32">
         <v>38.849133130657002</v>
@@ -4423,22 +4949,28 @@
       <c r="H88" s="32">
         <v>8.9118374985373894</v>
       </c>
-      <c r="I88" s="32">
+      <c r="I88" s="33">
         <v>1.04581509462944</v>
       </c>
-      <c r="J88" s="32">
+      <c r="J88" s="33">
         <v>39.544567496655397</v>
       </c>
-      <c r="K88" s="33">
+      <c r="K88" s="32">
         <v>65.075978613428902</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L88" s="32">
+        <v>41.870512530884398</v>
+      </c>
+      <c r="M88" s="33">
+        <v>16.3597322776432</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C89" s="37">
         <v>20.071770277593199</v>
@@ -4458,22 +4990,28 @@
       <c r="H89" s="37">
         <v>5.30953209200882</v>
       </c>
-      <c r="I89" s="37">
+      <c r="I89" s="38">
         <v>2.4106638184628699</v>
       </c>
-      <c r="J89" s="37">
+      <c r="J89" s="38">
         <v>23.111107016300501</v>
       </c>
-      <c r="K89" s="38">
+      <c r="K89" s="37">
         <v>64.268829395536201</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L89" s="37">
+        <v>24.4328443305563</v>
+      </c>
+      <c r="M89" s="38">
+        <v>42.234364395971802</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C90" s="35">
         <v>38.588798783827997</v>
@@ -4493,22 +5031,28 @@
       <c r="H90" s="35">
         <v>6.4667547239347503</v>
       </c>
-      <c r="I90" s="35">
+      <c r="I90" s="33">
         <v>2.8749078365665399</v>
       </c>
-      <c r="J90" s="35">
+      <c r="J90" s="33">
         <v>42.026196966251902</v>
       </c>
-      <c r="K90" s="33">
+      <c r="K90" s="35">
         <v>38.160920758258897</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L90" s="35">
+        <v>15.608973750711799</v>
+      </c>
+      <c r="M90" s="33">
+        <v>27.162859462665701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C91" s="35">
         <v>23.381535387620801</v>
@@ -4528,22 +5072,28 @@
       <c r="H91" s="35">
         <v>8.3514565277616697</v>
       </c>
-      <c r="I91" s="35">
+      <c r="I91" s="33">
         <v>2.8141341224915402</v>
       </c>
-      <c r="J91" s="35">
+      <c r="J91" s="33">
         <v>26.5763547691535</v>
       </c>
-      <c r="K91" s="33">
+      <c r="K91" s="35">
         <v>70.643197147125704</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L91" s="35">
+        <v>26.018126021804399</v>
+      </c>
+      <c r="M91" s="33">
+        <v>35.831433192957299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C92" s="35">
         <v>41.321946282819503</v>
@@ -4563,22 +5113,28 @@
       <c r="H92" s="35">
         <v>7.5639355651947104</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I92" s="33">
         <v>4.3883699128820197</v>
       </c>
-      <c r="J92" s="35">
+      <c r="J92" s="33">
         <v>42.576667106975101</v>
       </c>
-      <c r="K92" s="33">
+      <c r="K92" s="35">
         <v>58.5776678526803</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L92" s="35">
+        <v>28.842419229876601</v>
+      </c>
+      <c r="M92" s="33">
+        <v>39.865619505082599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C93" s="35">
         <v>22.419896064688999</v>
@@ -4598,22 +5154,28 @@
       <c r="H93" s="35">
         <v>6.5373575071763304</v>
       </c>
-      <c r="I93" s="35">
+      <c r="I93" s="33">
         <v>2.5718856835400699</v>
       </c>
-      <c r="J93" s="35">
+      <c r="J93" s="33">
         <v>26.3523603866321</v>
       </c>
-      <c r="K93" s="33">
+      <c r="K93" s="35">
         <v>46.747840284877697</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L93" s="35">
+        <v>21.146581580396798</v>
+      </c>
+      <c r="M93" s="33">
+        <v>26.208906621542301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C94" s="32">
         <v>26.242372366510299</v>
@@ -4633,22 +5195,28 @@
       <c r="H94" s="32">
         <v>8.91430631871002</v>
       </c>
-      <c r="I94" s="32">
+      <c r="I94" s="33">
         <v>2.3016748483003302</v>
       </c>
-      <c r="J94" s="32">
+      <c r="J94" s="33">
         <v>27.593008508122701</v>
       </c>
-      <c r="K94" s="33">
+      <c r="K94" s="32">
         <v>40.254725730399599</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L94" s="32">
+        <v>7.9857860832808196</v>
+      </c>
+      <c r="M94" s="33">
+        <v>24.8057277551586</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C95" s="37">
         <v>22.782603093459301</v>
@@ -4668,22 +5236,28 @@
       <c r="H95" s="37">
         <v>5.1056367591494896</v>
       </c>
-      <c r="I95" s="37">
+      <c r="I95" s="38">
         <v>2.4815892818090202</v>
       </c>
-      <c r="J95" s="37">
+      <c r="J95" s="38">
         <v>25.204993701832201</v>
       </c>
-      <c r="K95" s="38">
+      <c r="K95" s="37">
         <v>57.0938497751767</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L95" s="37">
+        <v>24.590656234491298</v>
+      </c>
+      <c r="M95" s="38">
+        <v>35.368761702477897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C96" s="35">
         <v>18.7545258264661</v>
@@ -4703,22 +5277,28 @@
       <c r="H96" s="35">
         <v>7.2886486422473302</v>
       </c>
-      <c r="I96" s="35">
+      <c r="I96" s="33">
         <v>1.7536681285056399</v>
       </c>
-      <c r="J96" s="35">
+      <c r="J96" s="33">
         <v>22.362375921705901</v>
       </c>
-      <c r="K96" s="33">
+      <c r="K96" s="35">
         <v>56.159938044558601</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L96" s="35">
+        <v>21.241340205713101</v>
+      </c>
+      <c r="M96" s="33">
+        <v>21.5775529033256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C97" s="40">
         <v>19.192865207892499</v>
@@ -4738,17 +5318,23 @@
       <c r="H97" s="40">
         <v>3.0389911168744401</v>
       </c>
-      <c r="I97" s="40">
+      <c r="I97" s="41">
         <v>1.4994946869021999</v>
       </c>
-      <c r="J97" s="40">
+      <c r="J97" s="41">
         <v>22.276795457175101</v>
       </c>
-      <c r="K97" s="41">
+      <c r="K97" s="40">
         <v>62.864465973618401</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L97" s="40">
+        <v>24.0572805367052</v>
+      </c>
+      <c r="M97" s="41">
+        <v>47.2574167920192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="42"/>
       <c r="B98" s="43"/>
       <c r="C98" s="32"/>
@@ -4760,58 +5346,60 @@
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
       <c r="K98" s="32"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="44" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B105" s="48" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="48"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B107" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B108" s="49" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B109" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B110" s="50" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B111" s="50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/AfDD_2021_Annex_Table_Tab18.xlsx
+++ b/AfDD_2021_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab18.xlsx
+++ b/AfDD_2021_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab18.xlsx
+++ b/AfDD_2021_Annex_Table_Tab18.xlsx
@@ -490,7 +490,7 @@
     <t>ROW, Upper middle income countries</t>
   </si>
   <si>
-    <t>High income countries (no LAC)</t>
+    <t>High income countries</t>
   </si>
   <si>
     <t>Africa, Least Developed Countries</t>

--- a/AfDD_2021_Annex_Table_Tab18.xlsx
+++ b/AfDD_2021_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab18.xlsx
+++ b/AfDD_2021_Annex_Table_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
